--- a/src/main/resources/csv/entity.xlsx
+++ b/src/main/resources/csv/entity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,17 +117,145 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,88 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -228,59 +274,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -291,13 +284,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,19 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,145 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +475,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,36 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -556,17 +554,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -574,159 +561,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1047,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1293,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1307,7 +1300,7 @@
         <v>1012</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1327,7 +1320,7 @@
         <v>1013</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1347,7 +1340,7 @@
         <v>1014</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1367,7 +1360,7 @@
         <v>1015</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1387,7 +1380,7 @@
         <v>1016</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1447,7 +1440,7 @@
         <v>1019</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -1467,7 +1460,7 @@
         <v>1020</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1527,7 +1520,7 @@
         <v>1023</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -1547,7 +1540,7 @@
         <v>1024</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -1567,7 +1560,7 @@
         <v>1025</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -1587,7 +1580,7 @@
         <v>1026</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
